--- a/modules/archive/assets/template/import_alih_template.xlsx
+++ b/modules/archive/assets/template/import_alih_template.xlsx
@@ -25,12 +25,6 @@
     <t>LOKASI</t>
   </si>
   <si>
-    <t>STORY</t>
-  </si>
-  <si>
-    <t>JENIS</t>
-  </si>
-  <si>
     <t>NO ARSIP</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>PAGES</t>
+  </si>
+  <si>
+    <t>COPIES</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,22 +401,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
